--- a/biology/Botanique/Cirsium_scariosum/Cirsium_scariosum.xlsx
+++ b/biology/Botanique/Cirsium_scariosum/Cirsium_scariosum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cirsium scariosum, le Chardon écailleux[1], est une espèce de plantes à fleurs du genre Cirsium et de la famille des Astéracées (ou Composées).
-Cirsium scariosum englobe un complexe de variétés majoritairement distribuées entre le sud-ouest du Canada et le nord-ouest du Mexique[2]. 
-Une population a également été découverte dans l'Archipel-de-Mingan, au Québec, par le frère Marie-Victorin, qui l'avait alors nommée Cirsium Minganense[3],[4]. Elle n'est pas considérée pour le moment comme une espèce distincte, même si une divergence génétique aussi importante qu'entre Cirsium scariosum et Cirsium hookerianum a été observé[5].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cirsium scariosum, le Chardon écailleux, est une espèce de plantes à fleurs du genre Cirsium et de la famille des Astéracées (ou Composées).
+Cirsium scariosum englobe un complexe de variétés majoritairement distribuées entre le sud-ouest du Canada et le nord-ouest du Mexique. 
+Une population a également été découverte dans l'Archipel-de-Mingan, au Québec, par le frère Marie-Victorin, qui l'avait alors nommée Cirsium Minganense,. Elle n'est pas considérée pour le moment comme une espèce distincte, même si une divergence génétique aussi importante qu'entre Cirsium scariosum et Cirsium hookerianum a été observé.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une espèce endémique d'Amérique du Nord. Plus précisément, elle est indigène en Alberta, Colombie-Britannique, Californie, Colorado, Idaho, Montana, Oregon, Québec, Utah, Washington et Wyoming[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une espèce endémique d'Amérique du Nord. Plus précisément, elle est indigène en Alberta, Colombie-Britannique, Californie, Colorado, Idaho, Montana, Oregon, Québec, Utah, Washington et Wyoming.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Plants of the World online (POWO)                (12 mai 2021)[6] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Plants of the World online (POWO)                (12 mai 2021) :
 Cirsium scariosum var. americanum (A.Gray) D.J.Keil
 Cirsium scariosum var. citrinum (Petr.) D.J.Keil
 Cirsium scariosum var. coloradense (Rydb.) D.J.Keil
@@ -581,9 +597,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Plants of the World online (POWO)                (12 mai 2021)[6], Cirsium scariosum a pour synonymes :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Plants of the World online (POWO)                (12 mai 2021), Cirsium scariosum a pour synonymes :
 Carduus butleri Rydb.
 Carduus drummondii var. acaulescens Coville
 Carduus lacerus Rydb.
